--- a/7Rmart/src/test/resources/TestData.xlsx
+++ b/7Rmart/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse_workspace\7Rmart\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayan\git\7RmartRepository\7Rmart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03509A38-9F49-4098-897D-8C6A5C65A9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2B8B7D-864C-4101-8E02-FCA6E5346C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00924DF9-07DA-4C68-ADD3-8C8F970E5C35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00924DF9-07DA-4C68-ADD3-8C8F970E5C35}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>username</t>
   </si>
@@ -97,6 +97,12 @@
     <t>TC 112/5CH, hosur,tamilnadu</t>
   </si>
   <si>
+    <t>"8900213458"</t>
+  </si>
+  <si>
+    <t>"9011234589"</t>
+  </si>
+  <si>
     <t>SubCategory</t>
   </si>
   <si>
@@ -107,6 +113,15 @@
   </si>
   <si>
     <t>lexiball pen</t>
+  </si>
+  <si>
+    <t>enter news</t>
+  </si>
+  <si>
+    <t>test news</t>
+  </si>
+  <si>
+    <t>sample news</t>
   </si>
 </sst>
 </file>
@@ -565,28 +580,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FAA464-AB88-4871-81D8-339B2DD0471C}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -690,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117EB2FE-F89E-47DF-B8BA-12DA2558E357}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,8 +740,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>8900213458</v>
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -738,8 +757,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>9011234589</v>
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -779,22 +798,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
